--- a/System_Money.xlsx
+++ b/System_Money.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="27">
   <si>
     <t xml:space="preserve">Comment</t>
   </si>
@@ -125,6 +125,15 @@
   </si>
   <si>
     <t xml:space="preserve">سلامت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خوراکی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1400/01/01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1400/01/10</t>
   </si>
   <si>
     <t xml:space="preserve">Name</t>
@@ -461,7 +470,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.13"/>
@@ -1999,7 +2008,7 @@
       <selection pane="topLeft" activeCell="J35" activeCellId="0" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2022,7 +2031,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.38"/>
@@ -3608,10 +3617,10 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.38"/>
@@ -3652,7 +3661,7 @@
       </c>
       <c r="E2" s="5" t="n">
         <f aca="false">SUM(C2:C150)</f>
-        <v>2000000</v>
+        <v>2040000</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3684,16 +3693,32 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="8"/>
+      <c r="A5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>30000</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="8"/>
+      <c r="A6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6"/>
@@ -5437,7 +5462,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="7.63"/>
@@ -5446,7 +5471,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6548,23 +6573,23 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="8" style="0" width="14.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
@@ -6580,11 +6605,11 @@
       </c>
       <c r="C2" s="14" t="n">
         <f aca="false">SUMIF(expend!$A$2:$A$150, A2, expend!$C$2:$C$150 )</f>
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D2" s="15" t="n">
         <f aca="false">B2-C2</f>
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
@@ -7113,7 +7138,7 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B32" s="19" t="n">
         <f aca="false">SUM(B2:B31)</f>
@@ -7121,11 +7146,11 @@
       </c>
       <c r="C32" s="19" t="n">
         <f aca="false">SUM(C2:C31)</f>
-        <v>2000000</v>
+        <v>2040000</v>
       </c>
       <c r="D32" s="19" t="n">
         <f aca="false">SUM(D2:D31)</f>
-        <v>500000</v>
+        <v>460000</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
